--- a/biology/Botanique/Sambucus_racemosa/Sambucus_racemosa.xlsx
+++ b/biology/Botanique/Sambucus_racemosa/Sambucus_racemosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sureau à grappes
-Le Sureau de montagne, sureau rameux, sureau rouge[1] ou sureau à grappes (Sambucus racemosa) est une espèce d'arbustes de la famille des Adoxaceae (anciennement classée dans la famille des Caprifoliaceae), dont les sous-espèces poussent dans les parties les plus froides de l'Amérique du Nord, de l'Europe et de l'Asie.
+Le Sureau de montagne, sureau rameux, sureau rouge ou sureau à grappes (Sambucus racemosa) est une espèce d'arbustes de la famille des Adoxaceae (anciennement classée dans la famille des Caprifoliaceae), dont les sous-espèces poussent dans les parties les plus froides de l'Amérique du Nord, de l'Europe et de l'Asie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à feuilles caduques composées, aux folioles dentées, aux rameaux retombants. Les inflorescences de petites fleurs crème sont des panicules pyramidaux. Les fruits sont des drupes de couleur rouge vif.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : cyme multipare
@@ -585,9 +601,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial et français[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial et français.
 En France l'espèce est considérée en danger (EN) en Poitou-Charentes ; elle est considérée vulnérable (VU) en Haute-Normandie ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, dans la région Centre.
 </t>
         </is>
@@ -617,10 +635,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour le sureau yèble, on possède peu de données. Les fruits non mûrs sont légèrement toxiques et entraînent des troubles digestifs (baies vomitives). Les graines, contenant des hétérosides cyanogènes, sont également à rejeter. 
-Les fruits cuits, riches en pectine, sont parfois mélangés à d'autres fruits de la forêt pour préparer confitures, gelées et marmelades ; fermentés, ils permettent aussi d'obtenir une eau-de-vie par distillation[3].
+Les fruits cuits, riches en pectine, sont parfois mélangés à d'autres fruits de la forêt pour préparer confitures, gelées et marmelades ; fermentés, ils permettent aussi d'obtenir une eau-de-vie par distillation.
 </t>
         </is>
       </c>
@@ -649,7 +669,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sambucus racemosa aurea
 Sambucus racemosa subsp. pubens, la sous-espèce américaine du Sureau à grappes.
@@ -682,9 +704,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fruit acide, riche en pectine, s'utilise seul ou bien en mélange (50 %) avec le sureau noir pour des gelées, sirops et boissons. Les graines, qui sont toxiques, doivent alors être éliminées[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fruit acide, riche en pectine, s'utilise seul ou bien en mélange (50 %) avec le sureau noir pour des gelées, sirops et boissons. Les graines, qui sont toxiques, doivent alors être éliminées.
 </t>
         </is>
       </c>
